--- a/ModuleTestCases.xlsx
+++ b/ModuleTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F5759-D89F-4F8A-847A-2954DF25948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E297F76-AF4B-4ACE-8074-BE7AF8B3D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="871">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -2906,6 +2906,18 @@
   </si>
   <si>
     <t>Email: "orjanlarsen32@gmail.co5"</t>
+  </si>
+  <si>
+    <t>Actual Result v1</t>
+  </si>
+  <si>
+    <t>Pass/Fail v1</t>
+  </si>
+  <si>
+    <t>Actual Result v2</t>
+  </si>
+  <si>
+    <t>Pass/Fail v2</t>
   </si>
 </sst>
 </file>
@@ -3367,14 +3379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4373,12 +4385,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4397,10 +4409,10 @@
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4419,10 +4431,10 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4641,7 +4653,7 @@
       <c r="C12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>854</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -19285,7 +19297,7 @@
       <c r="B40" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="46" t="s">
         <v>861</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -19328,7 +19340,7 @@
       <c r="B41" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="46" t="s">
         <v>862</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -20983,10 +20995,10 @@
   </sheetPr>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="35.25" customHeight="1"/>
@@ -20998,9 +21010,10 @@
     <col min="5" max="5" width="44.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="11" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="23" width="15.140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="11" customWidth="1"/>
+    <col min="11" max="23" width="15.140625" style="11" customWidth="1"/>
     <col min="24" max="16384" width="12.5703125" style="11"/>
   </cols>
   <sheetData>
@@ -21114,8 +21127,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -21155,8 +21172,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -21198,8 +21219,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -21241,8 +21266,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -21284,8 +21313,12 @@
       <c r="I7" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -21327,8 +21360,12 @@
       <c r="I8" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -21370,8 +21407,12 @@
       <c r="I9" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -21413,8 +21454,12 @@
       <c r="I10" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -21456,8 +21501,12 @@
       <c r="I11" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -21499,8 +21548,12 @@
       <c r="I12" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -21542,8 +21595,12 @@
       <c r="I13" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -21585,8 +21642,12 @@
       <c r="I14" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -21628,8 +21689,12 @@
       <c r="I15" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -21671,8 +21736,12 @@
       <c r="I16" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -21714,8 +21783,12 @@
       <c r="I17" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="J17" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -21757,8 +21830,12 @@
       <c r="I18" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -21800,8 +21877,12 @@
       <c r="I19" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -21843,8 +21924,12 @@
       <c r="I20" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -21886,8 +21971,12 @@
       <c r="I21" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -21930,8 +22019,12 @@
       <c r="I22" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -21973,8 +22066,12 @@
       <c r="I23" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -22016,8 +22113,12 @@
       <c r="I24" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="J24" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -22059,8 +22160,12 @@
       <c r="I25" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -22102,8 +22207,12 @@
       <c r="I26" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
@@ -22145,8 +22254,12 @@
       <c r="I27" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
@@ -22188,8 +22301,12 @@
       <c r="I28" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -22231,8 +22348,12 @@
       <c r="I29" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -22274,8 +22395,12 @@
       <c r="I30" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="J30" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -22317,8 +22442,12 @@
       <c r="I31" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="J31" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -22360,8 +22489,12 @@
       <c r="I32" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="J32" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -22403,8 +22536,12 @@
       <c r="I33" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="J33" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -22446,8 +22583,12 @@
       <c r="I34" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="J34" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -22489,8 +22630,12 @@
       <c r="I35" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
@@ -22532,8 +22677,12 @@
       <c r="I36" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="J36" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
@@ -22573,8 +22722,12 @@
       <c r="I37" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="J37" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
@@ -22616,8 +22769,12 @@
       <c r="I38" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="J38" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -22659,8 +22816,12 @@
       <c r="I39" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="J39" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -22702,8 +22863,12 @@
       <c r="I40" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="J40" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
@@ -22745,8 +22910,12 @@
       <c r="I41" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="J41" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -22788,8 +22957,12 @@
       <c r="I42" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="J42" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
@@ -22829,8 +23002,12 @@
       <c r="I43" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="J43" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -22872,8 +23049,12 @@
       <c r="I44" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
+      <c r="J44" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -22915,8 +23096,12 @@
       <c r="I45" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
+      <c r="J45" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
@@ -22958,8 +23143,12 @@
       <c r="I46" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
+      <c r="J46" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
@@ -23001,8 +23190,12 @@
       <c r="I47" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="J47" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -24537,9 +24730,9 @@
   </sheetPr>
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I11"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -24551,8 +24744,8 @@
     <col min="5" max="5" width="41.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="36" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
     <col min="10" max="23" width="15.140625" style="11" customWidth="1"/>
     <col min="24" max="16384" width="12.5703125" style="11"/>
   </cols>
@@ -24580,13 +24773,17 @@
         <v>13</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>14</v>
+        <v>867</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+        <v>868</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>870</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -24628,8 +24825,12 @@
       <c r="I2" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -24669,8 +24870,12 @@
       <c r="I3" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -24712,8 +24917,12 @@
       <c r="I4" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -24755,8 +24964,12 @@
       <c r="I5" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -24798,8 +25011,12 @@
       <c r="I6" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -24841,8 +25058,12 @@
       <c r="I7" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -24884,8 +25105,12 @@
       <c r="I8" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -24925,8 +25150,12 @@
       <c r="I9" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -24968,8 +25197,12 @@
       <c r="I10" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -25011,8 +25244,12 @@
       <c r="I11" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -25054,8 +25291,12 @@
       <c r="I12" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -25097,8 +25338,12 @@
       <c r="I13" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -26756,10 +27001,10 @@
   </sheetPr>
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="43.5" customHeight="1"/>
@@ -26887,7 +27132,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -26927,8 +27177,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -26970,8 +27224,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -27013,8 +27271,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -27056,8 +27318,12 @@
       <c r="I7" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -27099,7 +27365,12 @@
       <c r="I8" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -29742,9 +30013,9 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -29790,8 +30061,12 @@
       <c r="I1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -29814,11 +30089,18 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>852</v>
+      </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
@@ -29860,8 +30142,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -29901,8 +30187,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -29944,8 +30234,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -29987,8 +30281,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -30030,8 +30328,12 @@
       <c r="I7" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -30073,8 +30375,12 @@
       <c r="I8" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -31703,9 +32009,9 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -31751,8 +32057,12 @@
       <c r="I1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -31776,10 +32086,18 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>852</v>
+      </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
@@ -31821,8 +32139,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -31862,8 +32184,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -31905,8 +32231,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -31948,8 +32278,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -31991,8 +32325,12 @@
       <c r="I7" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -32034,8 +32372,12 @@
       <c r="I8" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -33664,9 +34006,9 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>

--- a/ModuleTestCases.xlsx
+++ b/ModuleTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E297F76-AF4B-4ACE-8074-BE7AF8B3D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBE28F-DA59-4DCC-B33A-B8CEA5DA0D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="871">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -3951,16 +3951,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>980356</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85270</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1237531</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3983,7 +3983,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16182975" y="1514475"/>
+          <a:off x="7200900" y="13677900"/>
           <a:ext cx="5752381" cy="3638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4348,7 +4348,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -17438,9 +17438,9 @@
   <dimension ref="A1:X107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="43.5" customHeight="1"/>
@@ -20998,7 +20998,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9:K47"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="35.25" customHeight="1"/>
@@ -24732,7 +24732,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -27001,10 +27001,10 @@
   </sheetPr>
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="43.5" customHeight="1"/>
@@ -30013,9 +30013,9 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -34006,9 +34006,9 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -34022,7 +34022,8 @@
     <col min="7" max="7" width="36" style="11" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="23" width="15.140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="11" customWidth="1"/>
+    <col min="11" max="23" width="15.140625" style="11" customWidth="1"/>
     <col min="24" max="16384" width="12.5703125" style="11"/>
   </cols>
   <sheetData>
@@ -34054,8 +34055,12 @@
       <c r="I1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -34079,10 +34084,18 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>852</v>
+      </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
@@ -34124,8 +34137,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -34165,8 +34182,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -34208,8 +34229,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -34251,8 +34276,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -34294,8 +34323,12 @@
       <c r="I7" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -34337,8 +34370,12 @@
       <c r="I8" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -35967,9 +36004,9 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -35982,8 +36019,10 @@
     <col min="6" max="6" width="21.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="36" style="11" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="23" width="15.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="11" customWidth="1"/>
+    <col min="12" max="23" width="15.140625" style="11" customWidth="1"/>
     <col min="24" max="16384" width="12.5703125" style="11"/>
   </cols>
   <sheetData>
@@ -36010,13 +36049,17 @@
         <v>13</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>14</v>
+        <v>867</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+        <v>870</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>870</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -36058,8 +36101,12 @@
       <c r="I2" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -36099,8 +36146,12 @@
       <c r="I3" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -36142,8 +36193,12 @@
       <c r="I4" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -36185,8 +36240,12 @@
       <c r="I5" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -36228,8 +36287,12 @@
       <c r="I6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -36271,8 +36334,12 @@
       <c r="I7" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -36314,8 +36381,12 @@
       <c r="I8" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -36355,8 +36426,12 @@
       <c r="I9" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -36398,8 +36473,12 @@
       <c r="I10" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -36441,8 +36520,12 @@
       <c r="I11" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -36484,8 +36567,12 @@
       <c r="I12" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -36527,8 +36614,12 @@
       <c r="I13" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -36570,8 +36661,12 @@
       <c r="I14" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -36611,8 +36706,12 @@
       <c r="I15" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -36654,8 +36753,12 @@
       <c r="I16" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -36697,8 +36800,12 @@
       <c r="I17" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="J17" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -36740,8 +36847,12 @@
       <c r="I18" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -36783,8 +36894,12 @@
       <c r="I19" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>807</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>

--- a/ModuleTestCases.xlsx
+++ b/ModuleTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBE28F-DA59-4DCC-B33A-B8CEA5DA0D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DD2CB-0A15-4CCD-A4E0-AA009119EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -2707,9 +2707,6 @@
     <t>Password :</t>
   </si>
   <si>
-    <t>japupAh</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -2918,6 +2915,9 @@
   </si>
   <si>
     <t>Pass/Fail v2</t>
+  </si>
+  <si>
+    <t>1+2</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2957,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2971,6 +2973,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4347,8 +4350,8 @@
   </sheetPr>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4654,10 +4657,10 @@
         <v>97</v>
       </c>
       <c r="D12" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>854</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>855</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4687,7 +4690,7 @@
         <v>45320</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4939,7 +4942,7 @@
         <v>805</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -17483,13 +17486,13 @@
         <v>13</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>15</v>
@@ -17530,16 +17533,16 @@
         <v>177</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -17580,13 +17583,13 @@
         <v>238</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>238</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -17627,13 +17630,13 @@
         <v>240</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>240</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -17674,13 +17677,13 @@
         <v>247</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>247</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -17718,16 +17721,16 @@
         <v>243</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>243</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -17768,13 +17771,13 @@
         <v>177</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -17815,13 +17818,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>266</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -17862,13 +17865,13 @@
         <v>177</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>271</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -17909,13 +17912,13 @@
         <v>177</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>177</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -17956,13 +17959,13 @@
         <v>309</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>309</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -18003,13 +18006,13 @@
         <v>313</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>313</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -18050,13 +18053,13 @@
         <v>316</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>316</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -18095,16 +18098,16 @@
         <v>319</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I14" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="K14" s="40" t="s">
         <v>807</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>810</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>808</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -18145,13 +18148,13 @@
         <v>177</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>177</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -18192,13 +18195,13 @@
         <v>333</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>333</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -18239,13 +18242,13 @@
         <v>338</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>338</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -18286,13 +18289,13 @@
         <v>342</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>342</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -18330,16 +18333,16 @@
         <v>346</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I19" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="K19" s="40" t="s">
         <v>807</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>810</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>808</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -18380,13 +18383,13 @@
         <v>177</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -18427,13 +18430,13 @@
         <v>355</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>355</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -18474,13 +18477,13 @@
         <v>359</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>359</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -18521,13 +18524,13 @@
         <v>381</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>381</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -18565,16 +18568,16 @@
         <v>381</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -18615,13 +18618,13 @@
         <v>362</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>362</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -18662,13 +18665,13 @@
         <v>362</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>362</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -18709,13 +18712,13 @@
         <v>177</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>368</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
@@ -18735,7 +18738,7 @@
         <v>147</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>385</v>
@@ -18756,13 +18759,13 @@
         <v>177</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -18782,7 +18785,7 @@
         <v>258</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>389</v>
@@ -18801,13 +18804,13 @@
         <v>392</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>392</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -18827,7 +18830,7 @@
         <v>301</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>393</v>
@@ -18848,13 +18851,13 @@
         <v>397</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>397</v>
       </c>
       <c r="K30" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -18874,7 +18877,7 @@
         <v>382</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>398</v>
@@ -18895,13 +18898,13 @@
         <v>401</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>401</v>
       </c>
       <c r="K31" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -18921,7 +18924,7 @@
         <v>383</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>402</v>
@@ -18942,13 +18945,13 @@
         <v>401</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>401</v>
       </c>
       <c r="K32" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
@@ -18968,7 +18971,7 @@
         <v>384</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>406</v>
@@ -18989,13 +18992,13 @@
         <v>177</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>409</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -19015,7 +19018,7 @@
         <v>435</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>410</v>
@@ -19036,13 +19039,13 @@
         <v>177</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -19062,7 +19065,7 @@
         <v>436</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>413</v>
@@ -19081,13 +19084,13 @@
         <v>416</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>416</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -19107,7 +19110,7 @@
         <v>437</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>427</v>
@@ -19119,22 +19122,22 @@
         <v>419</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>433</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -19154,7 +19157,7 @@
         <v>438</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>428</v>
@@ -19166,22 +19169,22 @@
         <v>419</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>434</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -19201,7 +19204,7 @@
         <v>439</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>417</v>
@@ -19222,13 +19225,13 @@
         <v>177</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J38" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K38" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -19248,7 +19251,7 @@
         <v>440</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>421</v>
@@ -19269,13 +19272,13 @@
         <v>177</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J39" s="31" t="s">
         <v>423</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -19292,22 +19295,22 @@
     </row>
     <row r="40" spans="1:23" ht="43.5" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>419</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>434</v>
@@ -19318,7 +19321,7 @@
         <v>177</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -19335,22 +19338,22 @@
     </row>
     <row r="41" spans="1:23" ht="43.5" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>419</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>434</v>
@@ -19361,7 +19364,7 @@
         <v>177</v>
       </c>
       <c r="K41" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -21075,16 +21078,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -21125,13 +21128,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -21170,13 +21173,13 @@
         <v>167</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -21217,13 +21220,13 @@
         <v>151</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>151</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -21264,13 +21267,13 @@
         <v>152</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>152</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -21311,13 +21314,13 @@
         <v>177</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>153</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -21358,13 +21361,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>248</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -21402,16 +21405,16 @@
         <v>177</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -21449,16 +21452,16 @@
         <v>238</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -21496,16 +21499,16 @@
         <v>240</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -21543,16 +21546,16 @@
         <v>247</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -21590,16 +21593,16 @@
         <v>243</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -21637,16 +21640,16 @@
         <v>177</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -21684,16 +21687,16 @@
         <v>266</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -21731,16 +21734,16 @@
         <v>269</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -21778,16 +21781,16 @@
         <v>271</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -21825,16 +21828,16 @@
         <v>177</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -21872,16 +21875,16 @@
         <v>309</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -21919,16 +21922,16 @@
         <v>313</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -21966,16 +21969,16 @@
         <v>316</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -22014,16 +22017,16 @@
         <v>319</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -22061,16 +22064,16 @@
         <v>177</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -22108,16 +22111,16 @@
         <v>333</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -22155,16 +22158,16 @@
         <v>338</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -22202,16 +22205,16 @@
         <v>342</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -22249,16 +22252,16 @@
         <v>346</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
@@ -22296,16 +22299,16 @@
         <v>177</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -22343,16 +22346,16 @@
         <v>355</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -22390,16 +22393,16 @@
         <v>359</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -22437,16 +22440,16 @@
         <v>381</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
@@ -22484,16 +22487,16 @@
         <v>381</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
@@ -22531,16 +22534,16 @@
         <v>362</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -22578,16 +22581,16 @@
         <v>365</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -22625,16 +22628,16 @@
         <v>368</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -22654,7 +22657,7 @@
         <v>567</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>385</v>
@@ -22672,16 +22675,16 @@
         <v>177</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -22701,7 +22704,7 @@
         <v>568</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>389</v>
@@ -22717,16 +22720,16 @@
         <v>392</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -22746,7 +22749,7 @@
         <v>569</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>393</v>
@@ -22764,16 +22767,16 @@
         <v>397</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -22793,7 +22796,7 @@
         <v>570</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>398</v>
@@ -22811,16 +22814,16 @@
         <v>401</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -22840,7 +22843,7 @@
         <v>571</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>402</v>
@@ -22858,16 +22861,16 @@
         <v>405</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -22887,7 +22890,7 @@
         <v>572</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>406</v>
@@ -22905,16 +22908,16 @@
         <v>409</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -22931,7 +22934,7 @@
     </row>
     <row r="42" spans="1:23" ht="35.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>100</v>
@@ -22952,16 +22955,16 @@
         <v>177</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -22978,7 +22981,7 @@
     </row>
     <row r="43" spans="1:23" ht="35.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>100</v>
@@ -22997,16 +23000,16 @@
         <v>416</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -23023,7 +23026,7 @@
     </row>
     <row r="44" spans="1:23" ht="35.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>100</v>
@@ -23044,16 +23047,16 @@
         <v>433</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -23070,7 +23073,7 @@
     </row>
     <row r="45" spans="1:23" ht="35.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>100</v>
@@ -23091,16 +23094,16 @@
         <v>434</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -23117,7 +23120,7 @@
     </row>
     <row r="46" spans="1:23" ht="35.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>100</v>
@@ -23138,16 +23141,16 @@
         <v>420</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -23164,7 +23167,7 @@
     </row>
     <row r="47" spans="1:23" ht="35.25" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>100</v>
@@ -23185,16 +23188,16 @@
         <v>423</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -24773,16 +24776,16 @@
         <v>13</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>869</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>870</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -24823,13 +24826,13 @@
         <v>177</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -24868,13 +24871,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -24915,13 +24918,13 @@
         <v>177</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>151</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -24962,13 +24965,13 @@
         <v>177</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>152</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -25009,13 +25012,13 @@
         <v>177</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>153</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -25056,13 +25059,13 @@
         <v>177</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>248</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -25103,13 +25106,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -25148,13 +25151,13 @@
         <v>177</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>182</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -25195,13 +25198,13 @@
         <v>177</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>185</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -25242,13 +25245,13 @@
         <v>177</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>188</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -25289,13 +25292,13 @@
         <v>177</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>191</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -25336,13 +25339,13 @@
         <v>177</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>249</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -27080,16 +27083,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -27130,13 +27133,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -27175,13 +27178,13 @@
         <v>207</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -27222,13 +27225,13 @@
         <v>211</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -27269,13 +27272,13 @@
         <v>214</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>214</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -27316,13 +27319,13 @@
         <v>217</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>217</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -27363,13 +27366,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -27407,16 +27410,16 @@
         <v>177</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -27452,16 +27455,16 @@
         <v>167</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -27499,16 +27502,16 @@
         <v>151</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -27546,16 +27549,16 @@
         <v>152</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -27593,16 +27596,16 @@
         <v>153</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -27640,16 +27643,16 @@
         <v>248</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -27687,16 +27690,16 @@
         <v>177</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -27733,16 +27736,16 @@
         <v>755</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -27780,16 +27783,16 @@
         <v>755</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -27827,16 +27830,16 @@
         <v>763</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -27874,16 +27877,16 @@
         <v>767</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -27921,16 +27924,16 @@
         <v>771</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -27968,16 +27971,16 @@
         <v>775</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -30090,16 +30093,16 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="H2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -30140,13 +30143,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -30185,13 +30188,13 @@
         <v>207</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -30232,13 +30235,13 @@
         <v>211</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -30279,13 +30282,13 @@
         <v>214</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>214</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -30326,13 +30329,13 @@
         <v>217</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>217</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -30373,13 +30376,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -32087,16 +32090,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -32137,13 +32140,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -32182,13 +32185,13 @@
         <v>167</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -32229,13 +32232,13 @@
         <v>151</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>151</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -32276,13 +32279,13 @@
         <v>152</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>152</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -32323,13 +32326,13 @@
         <v>153</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>153</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -32370,13 +32373,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>248</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -34085,16 +34088,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -34135,13 +34138,13 @@
         <v>177</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -34180,13 +34183,13 @@
         <v>167</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -34227,13 +34230,13 @@
         <v>151</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -34274,13 +34277,13 @@
         <v>152</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>214</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -34321,13 +34324,13 @@
         <v>217</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>217</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -34368,13 +34371,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>252</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -36004,9 +36007,9 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:H3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
@@ -36049,16 +36052,16 @@
         <v>13</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>869</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>870</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -36099,13 +36102,13 @@
         <v>177</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -36144,13 +36147,13 @@
         <v>167</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -36191,13 +36194,13 @@
         <v>151</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>151</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -36238,13 +36241,13 @@
         <v>152</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>152</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -36285,13 +36288,13 @@
         <v>217</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>217</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -36332,13 +36335,13 @@
         <v>177</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -36358,19 +36361,19 @@
         <v>447</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>845</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>846</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>177</v>
@@ -36379,13 +36382,13 @@
         <v>177</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -36405,32 +36408,32 @@
         <v>448</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>848</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>849</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -36450,34 +36453,34 @@
         <v>449</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>829</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>830</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I10" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>807</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>808</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -36497,34 +36500,34 @@
         <v>450</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>833</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>834</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I11" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>807</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>808</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -36544,34 +36547,34 @@
         <v>451</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>837</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>838</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I12" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>807</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>808</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -36591,34 +36594,34 @@
         <v>452</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>840</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>841</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>842</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -36659,13 +36662,13 @@
         <v>177</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -36704,13 +36707,13 @@
         <v>177</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -36751,13 +36754,13 @@
         <v>177</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>466</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -36798,13 +36801,13 @@
         <v>177</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>470</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -36845,13 +36848,13 @@
         <v>177</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>474</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -36892,13 +36895,13 @@
         <v>177</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>177</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>

--- a/ModuleTestCases.xlsx
+++ b/ModuleTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DD2CB-0A15-4CCD-A4E0-AA009119EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63888845-CB9B-4828-B5DE-A040F7916212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6600" yWindow="195" windowWidth="15375" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -4351,7 +4351,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -21001,7 +21001,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H47"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="35.25" customHeight="1"/>
